--- a/PivotTableReports.xlsx
+++ b/PivotTableReports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Excel-DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63C320A-F335-48F8-B9CA-4116366E193A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F04D62-670B-4B58-B7D9-A9223410224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,19 @@
     <sheet name="6" sheetId="8" r:id="rId7"/>
     <sheet name="7" sheetId="9" r:id="rId8"/>
     <sheet name="8" sheetId="10" r:id="rId9"/>
+    <sheet name="9" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Geography">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="61">
   <si>
     <t>Pivot Tables</t>
   </si>
@@ -218,19 +219,45 @@
     <t>Products by geography</t>
   </si>
   <si>
-    <t>Bottom 10 Products by sales</t>
-  </si>
-  <si>
     <t>Top 10 products per Person</t>
-  </si>
-  <si>
-    <t>Pivot Chart</t>
   </si>
   <si>
     <t>Amount &amp; Percentages</t>
   </si>
   <si>
     <t>Sales by person with geography (using Filter)</t>
+  </si>
+  <si>
+    <t>Bottom 10 Products by geography</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gives consolidated view of worst product by country</t>
+    </r>
+  </si>
+  <si>
+    <t>Pivot Chart - Top 5 sales person by sales, geography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of customers brought in by each salesperson </t>
   </si>
 </sst>
 </file>
@@ -332,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -361,11 +388,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
@@ -373,12 +405,10 @@
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -393,20 +423,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <alignment horizontal="right"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -458,6 +479,40 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total sales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3707290026246719"/>
+          <c:y val="4.5275590551181105E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -471,13 +526,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -492,16 +548,58 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -519,12 +617,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="lt1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -534,8 +629,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -557,7 +653,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7'!$B$6</c:f>
+              <c:f>'7'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -567,58 +663,128 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'7'!$A$7:$A$12</c:f>
+              <c:f>'7'!$B$7:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Barr Faughny</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Curtice Advani</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brien Boise</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Ram Mahesh</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Carla Molina</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ches Bonnell</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Barr Faughny</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>Brien Boise</c:v>
+                  <c:v>Gigi Bohling</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7'!$B$7:$B$12</c:f>
+              <c:f>'7'!$C$7:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>55958</c:v>
+                  <c:v>73381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53032</c:v>
+                  <c:v>55881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51142</c:v>
+                  <c:v>50729</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49196</c:v>
+                  <c:v>45395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44114</c:v>
+                  <c:v>43393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,15 +796,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="41"/>
         <c:axId val="388125856"/>
         <c:axId val="637253936"/>
       </c:barChart>
@@ -655,14 +821,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -671,13 +831,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -698,53 +859,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="388125856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -774,7 +894,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -800,12 +920,26 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="68000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -889,56 +1023,61 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -953,107 +1092,167 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1069,21 +1268,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1098,15 +1295,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1117,14 +1314,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1136,14 +1333,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1155,26 +1352,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1188,17 +1379,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1207,14 +1397,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1226,17 +1416,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1245,27 +1434,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1273,11 +1462,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1285,14 +1485,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1304,12 +1504,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1318,14 +1520,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1334,7 +1536,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1350,11 +1552,13 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1367,7 +1571,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1379,14 +1583,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1449,16 +1647,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1485,16 +1683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1530,7 +1728,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6888480" y="1089660"/>
+              <a:off x="8122920" y="1082040"/>
               <a:ext cx="1828800" cy="2466975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6170,7 +6368,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23B1E445-7C0C-40A7-B378-F7ED427402DF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23B1E445-7C0C-40A7-B378-F7ED427402DF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -6238,7 +6436,7 @@
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="15">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -6255,7 +6453,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5382947E-D662-4D6A-A298-DF04A162BE9F}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5382947E-D662-4D6A-A298-DF04A162BE9F}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B5:I17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -6356,7 +6554,7 @@
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -6373,7 +6571,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7F2C1B3-0E93-4872-A33A-BD5906E02DA6}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7F2C1B3-0E93-4872-A33A-BD5906E02DA6}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B7:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -6451,9 +6649,9 @@
     <pageField fld="1" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="5" numFmtId="164"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6466,7 +6664,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F4FD749-EDAA-43E1-9D21-20B6010E790E}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F4FD749-EDAA-43E1-9D21-20B6010E790E}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B7:C30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -6618,11 +6816,11 @@
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleDark3" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6635,7 +6833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0EEFF257-7442-45F1-91E0-75E551444C2E}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0EEFF257-7442-45F1-91E0-75E551444C2E}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B7:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -6694,34 +6892,34 @@
   </rowFields>
   <rowItems count="11">
     <i>
-      <x v="8"/>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x/>
     </i>
     <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -6731,17 +6929,17 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" item="4" hier="-1"/>
+    <pageField fld="1" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="12">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium14" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
     <filter fld="2" type="count" evalOrder="-1" id="2" iMeasureFld="0">
       <autoFilter ref="A1">
@@ -6763,8 +6961,121 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53A81281-49AC-45FB-8833-1F0DC02992A4}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B7:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7E3E2E6-35FF-4E84-B862-93F71F4EB70B}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="F9:H16" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="5">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
+      <items count="22">
+        <item x="8"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="18"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="4"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="6" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="3" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="2" baseItem="11" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium14" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="3" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53A81281-49AC-45FB-8833-1F0DC02992A4}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B7:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
       <items count="11">
@@ -6812,13 +7123,13 @@
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
+              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
     <pivotField dataField="1" numFmtId="3" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -6826,49 +7137,58 @@
   </rowFields>
   <rowItems count="11">
     <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="8"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="17"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="5" hier="-1"/>
+    <pageField fld="0" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Sum of Customers" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Amount" fld="3" baseField="2" baseItem="15" numFmtId="164"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium10" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <filters count="1">
     <filter fld="2" type="count" evalOrder="-1" id="2" iMeasureFld="0">
       <autoFilter ref="A1">
@@ -6889,9 +7209,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{575FAD9F-5DEA-46DB-AC56-5BF2E3936D10}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{575FAD9F-5DEA-46DB-AC56-5BF2E3936D10}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B6:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
       <items count="11">
@@ -6922,8 +7242,8 @@
         <item h="1" x="4"/>
         <item h="1" x="2"/>
         <item h="1" x="5"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
         <item h="1" x="1"/>
         <item t="default"/>
       </items>
@@ -6937,19 +7257,19 @@
   </rowFields>
   <rowItems count="6">
     <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -6962,7 +7282,7 @@
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="11">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -6981,7 +7301,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <filters count="1">
     <filter fld="0" type="count" evalOrder="-1" id="1" iMeasureFld="0">
       <autoFilter ref="A1">
@@ -7002,8 +7322,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{398ACD22-C21A-4907-8D71-4A9CD160EDAA}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{398ACD22-C21A-4907-8D71-4A9CD160EDAA}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B5:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7077,7 +7397,7 @@
     <dataField name="Sum of Amount2" fld="3" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="7">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7087,7 +7407,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7097,7 +7417,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="6">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7106,7 +7426,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7115,7 +7435,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7162,8 +7482,8 @@
         <i x="4"/>
         <i x="2"/>
         <i x="5"/>
-        <i x="0" s="1"/>
-        <i x="3"/>
+        <i x="0"/>
+        <i x="3" s="1"/>
         <i x="1"/>
       </items>
     </tabular>
@@ -7173,7 +7493,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Geography" xr10:uid="{B9CC8F43-E62F-4490-98C1-84CA873AC317}" cache="Slicer_Geography" caption="Geography" rowHeight="234950"/>
+  <slicer name="Geography" xr10:uid="{B9CC8F43-E62F-4490-98C1-84CA873AC317}" cache="Slicer_Geography" caption="Geography" style="SlicerStyleDark1" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -7184,8 +7504,8 @@
     <tableColumn id="1" xr3:uid="{70132EAD-5BBD-435B-B31D-7C93660C1BDD}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{392DC893-128C-4E1E-80B1-3191910217FD}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{6F2FD9CC-976C-4849-B0B3-3F78C609CE91}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{73521B8A-3E7C-432C-94BB-602DBCACBFEA}" name="Amount" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{97B5105C-5260-4510-8214-401A9EBA229A}" name="Customers" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{73521B8A-3E7C-432C-94BB-602DBCACBFEA}" name="Amount" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{97B5105C-5260-4510-8214-401A9EBA229A}" name="Customers" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7490,8 +7810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="A1:M658"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7504,7 +7824,7 @@
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="12" max="12" width="3.109375" customWidth="1"/>
-    <col min="13" max="13" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7601,7 +7921,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -7647,7 +7967,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
@@ -7670,7 +7990,7 @@
         <v>6</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
@@ -7693,7 +8013,7 @@
         <v>7</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
@@ -7716,7 +8036,7 @@
         <v>8</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
@@ -7734,6 +8054,12 @@
       </c>
       <c r="G20" s="5">
         <v>75</v>
+      </c>
+      <c r="L20" s="19">
+        <v>9</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
@@ -18588,6 +18914,18 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1860131-866B-40CC-9755-E6B67A3088CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -19073,7 +19411,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19108,7 +19446,7 @@
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>50267</v>
       </c>
     </row>
@@ -19116,7 +19454,7 @@
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>21525</v>
       </c>
     </row>
@@ -19124,7 +19462,7 @@
       <c r="B10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>66920</v>
       </c>
     </row>
@@ -19132,7 +19470,7 @@
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>41636</v>
       </c>
     </row>
@@ -19140,7 +19478,7 @@
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>60662</v>
       </c>
     </row>
@@ -19148,7 +19486,7 @@
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>67893</v>
       </c>
     </row>
@@ -19156,7 +19494,7 @@
       <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>57463</v>
       </c>
     </row>
@@ -19164,7 +19502,7 @@
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <v>50134</v>
       </c>
     </row>
@@ -19172,7 +19510,7 @@
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>50169</v>
       </c>
     </row>
@@ -19180,7 +19518,7 @@
       <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>48811</v>
       </c>
     </row>
@@ -19188,7 +19526,7 @@
       <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>515480</v>
       </c>
     </row>
@@ -19205,7 +19543,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19430,33 +19768,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC83776-E15D-4876-97CC-72004FFC6C83}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="str">
         <f>Pivot!M16</f>
-        <v>Bottom 10 Products by sales</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>Bottom 10 Products by geography</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
@@ -19464,92 +19805,166 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10">
-        <v>4879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10">
+        <v>8085</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10">
+        <v>11333</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="10">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
-        <v>5628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="C11" s="10">
+        <v>12222</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10">
-        <v>7630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="10">
-        <v>8029</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H11" s="10">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="10">
-        <v>10479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14868</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="10">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10">
-        <v>12873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14966</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="10">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C14" s="10">
-        <v>13874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15295</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" s="10">
-        <v>15274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15547</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="10">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C16" s="10">
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>15554</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="10">
+        <v>18137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C17" s="10">
-        <v>15862</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>15883</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="10">
-        <v>109928</v>
+        <v>129437</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -19562,126 +19977,164 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574B44FC-D487-4707-85FC-895DE95875E1}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="17" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="str">
         <f>Pivot!M17</f>
         <v>Top 10 products per Person</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9">
+        <v>909</v>
+      </c>
+      <c r="D8" s="10">
+        <v>27223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9">
+        <v>567</v>
+      </c>
+      <c r="D9" s="10">
+        <v>16247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9">
+        <v>618</v>
+      </c>
+      <c r="D10" s="10">
+        <v>15883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="9">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="9">
+        <v>681</v>
+      </c>
+      <c r="D11" s="10">
+        <v>15785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1041</v>
+      </c>
+      <c r="D12" s="10">
+        <v>15337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9">
+        <v>546</v>
+      </c>
+      <c r="D13" s="10">
+        <v>14896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9">
+        <v>750</v>
+      </c>
+      <c r="D14" s="10">
+        <v>14210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="9">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="C15" s="9">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="D15" s="10">
+        <v>12397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="9">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+      <c r="D16" s="10">
+        <v>6839</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C17" s="9">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>948</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="9">
-        <v>6408</v>
+        <v>7224</v>
+      </c>
+      <c r="D18" s="10">
+        <v>142219</v>
       </c>
     </row>
   </sheetData>
@@ -19694,78 +20147,78 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6390552-5D70-4AD9-8B3A-54BF65BE2246}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="17" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" s="17" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="str">
         <f>Pivot!M18</f>
-        <v>Pivot Chart</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+        <v>Pivot Chart - Top 5 sales person by sales, geography</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>73381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>55881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10">
+        <v>50729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="10">
-        <v>55958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="10">
-        <v>53032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="10">
-        <v>51142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10">
-        <v>49196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10">
-        <v>44114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="C10" s="10">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="9">
-        <v>253442</v>
+      <c r="C12" s="9">
+        <v>268779</v>
       </c>
     </row>
   </sheetData>
@@ -19790,14 +20243,24 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11:D11"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" start="5" max="10" activeRow="10" activeCol="1" previousRow="10" previousCol="1" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="1">
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.5">
@@ -19947,6 +20410,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
